--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512625.485553027</v>
+        <v>1527943.799277601</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111181</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6970500.358357909</v>
+        <v>6970500.358357908</v>
       </c>
     </row>
     <row r="11">
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>1.132156597198692</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>29.8169472598111</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>196.9826481283071</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>186.9919489137622</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>212.0101201452588</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="C11" t="n">
-        <v>47.74806282379154</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>39.60299862745762</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.6683644804151</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.637108967925709</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.4697023004217</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>26.50533691882911</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>49.74898662285655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>81.31353794682707</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>158.4241558681327</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>101.5924842966264</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>32.24227327125639</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>306.1988455360188</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>134.5658975014686</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,22 +2044,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>42.05930342856828</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>399.8885402891422</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.1189927826355</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>9.92655538733583</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>39.4316700008873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2293,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>47.1210524279044</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5439382344026726</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>120.3696041852723</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.19479062707047</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>75.54406376457628</v>
+        <v>95.20520959211127</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2652,7 +2652,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>27.40980013812798</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>61.48284822282512</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>149.6019319835427</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>95.74750869258952</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>88.00880902957816</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>229.4648948896783</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>50.64757157172942</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>89.49567018284172</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>67.85568685568373</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.1076239105585</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3396,7 +3396,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>174.8796475086727</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>15.13518083054801</v>
       </c>
     </row>
     <row r="37">
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.35168551462429</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>142.4984704850177</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>86.65804289016231</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3585,22 +3585,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>113.7561617846094</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501946</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>160.0903419479085</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9789256274115</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>141.639626083508</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>128.4562226808346</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -3870,7 +3870,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>153.5986973117286</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73.36175976093807</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H44" t="n">
-        <v>123.0169767998942</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.64757157172924</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>135.5583573280005</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>176.8839300665536</v>
+        <v>180.0783550618348</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
         <v>720.6083788665362</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.0313262305118</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C3" t="n">
-        <v>293.0313262305118</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D3" t="n">
-        <v>293.0313262305118</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E3" t="n">
-        <v>133.7938712250563</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F3" t="n">
-        <v>133.7938712250563</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G3" t="n">
         <v>132.6502787026334</v>
@@ -4416,10 +4416,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>933.9390269653725</v>
       </c>
       <c r="V3" t="n">
-        <v>461.2466632505798</v>
+        <v>933.9390269653725</v>
       </c>
       <c r="W3" t="n">
-        <v>461.2466632505798</v>
+        <v>933.9390269653725</v>
       </c>
       <c r="X3" t="n">
-        <v>461.2466632505798</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="Y3" t="n">
-        <v>461.2466632505798</v>
+        <v>726.0875267598396</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C5" t="n">
         <v>765.0847836638613</v>
-      </c>
-      <c r="C5" t="n">
-        <v>521.6360070197613</v>
       </c>
       <c r="D5" t="n">
         <v>521.6360070197613</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,25 +4668,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
         <v>34.73845373156126</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>307.1033079837604</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V9" t="n">
-        <v>475.3186450038284</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W9" t="n">
-        <v>475.3186450038284</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>475.3186450038284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>475.3186450038284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4942,19 +4942,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
-        <v>1188.947668900687</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5060,31 +5060,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.96628798761</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.96628798761</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.96628798761</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.96628798761</v>
+        <v>150.9897000805379</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>515.0842197075859</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>340.6311904264589</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>191.6967807652077</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278475</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321105</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
         <v>1541.568727888341</v>
@@ -5148,22 +5148,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1334.063463929883</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1334.063463929883</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="V12" t="n">
-        <v>1098.911355698141</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="W12" t="n">
-        <v>1098.911355698141</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="X12" t="n">
-        <v>891.0598554926078</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.2995567276539</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5218,31 +5218,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T13" t="n">
-        <v>351.5121480999949</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.5121480999949</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>451.6733443394129</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C14" t="n">
-        <v>82.71082739900123</v>
+        <v>1596.193220392833</v>
       </c>
       <c r="D14" t="n">
-        <v>82.71082739900123</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>852.139269187838</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G14" t="n">
         <v>32.45932575975219</v>
@@ -5279,49 +5279,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V14" t="n">
-        <v>1177.907757870607</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W14" t="n">
-        <v>825.1391026004928</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X14" t="n">
-        <v>451.6733443394129</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y14" t="n">
-        <v>451.6733443394129</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>435.5817998289711</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="C15" t="n">
-        <v>261.1287705478441</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="D15" t="n">
-        <v>261.1287705478441</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E15" t="n">
-        <v>261.1287705478441</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F15" t="n">
-        <v>114.594212574729</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
@@ -5361,46 +5361,46 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270846</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313475</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.665718993835</v>
       </c>
       <c r="U15" t="n">
-        <v>1254.561044051268</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V15" t="n">
-        <v>1019.408935819526</v>
+        <v>877.3109432995702</v>
       </c>
       <c r="W15" t="n">
-        <v>1019.408935819526</v>
+        <v>717.2865434327695</v>
       </c>
       <c r="X15" t="n">
-        <v>811.557435613993</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="Y15" t="n">
-        <v>603.7971368490391</v>
+        <v>509.4350432272366</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G16" t="n">
-        <v>193.9514651575251</v>
+        <v>140.45402245942</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5455,31 +5455,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.5701361642185</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>150.9897000805384</v>
+        <v>1313.674524819914</v>
       </c>
       <c r="C17" t="n">
-        <v>150.9897000805384</v>
+        <v>944.7120078795022</v>
       </c>
       <c r="D17" t="n">
-        <v>150.9897000805384</v>
+        <v>944.7120078795022</v>
       </c>
       <c r="E17" t="n">
-        <v>150.9897000805384</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5516,13 +5516,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W17" t="n">
-        <v>150.9897000805384</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X17" t="n">
-        <v>150.9897000805384</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.9897000805384</v>
+        <v>1313.674524819914</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
@@ -5601,16 +5601,16 @@
         <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.96628798761</v>
@@ -5637,7 +5637,7 @@
         <v>247.7198513240014</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5692,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687506</v>
+        <v>74.9434706370939</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V19" t="n">
         <v>32.45932575975219</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>846.2271159476761</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C20" t="n">
-        <v>846.2271159476761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D20" t="n">
-        <v>846.2271159476761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E20" t="n">
-        <v>846.2271159476761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>436.3871442336333</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
         <v>32.45932575975219</v>
@@ -5750,13 +5750,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
         <v>838.8947028941458</v>
@@ -5774,28 +5774,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.96628798761</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.96628798761</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.96628798761</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.96628798761</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.96628798761</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.96628798761</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y20" t="n">
-        <v>1232.826956011798</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>517.062015162672</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="C21" t="n">
-        <v>517.062015162672</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="D21" t="n">
-        <v>517.062015162672</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>182.5828534501549</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>182.5828534501549</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>72.28929545761815</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>236.9655055809358</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M21" t="n">
-        <v>636.3836421851988</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N21" t="n">
-        <v>1038.067798462132</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1361.08130563669</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1603.325054840698</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.96628798761</v>
@@ -5856,25 +5856,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1422.063279093103</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U21" t="n">
-        <v>1422.063279093103</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V21" t="n">
-        <v>1186.91117086136</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W21" t="n">
-        <v>932.6738141331587</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X21" t="n">
-        <v>724.8223139276258</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y21" t="n">
-        <v>517.062015162672</v>
+        <v>329.1174114232699</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E23" t="n">
-        <v>968.7637269953007</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F23" t="n">
-        <v>968.7637269953007</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="U23" t="n">
-        <v>1369.129404919864</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="V23" t="n">
-        <v>1321.532382265415</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="W23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y23" t="n">
-        <v>968.7637269953007</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>207.4617876008819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C24" t="n">
-        <v>33.00875831975489</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>33.00875831975489</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
         <v>32.45932575975219</v>
@@ -6066,52 +6066,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497703</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.665718993835</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U24" t="n">
-        <v>1112.463051531313</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V24" t="n">
-        <v>877.3109432995702</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W24" t="n">
-        <v>623.0735865713687</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X24" t="n">
-        <v>415.2220863658358</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y24" t="n">
-        <v>207.4617876008819</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1583.375590384508</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U25" t="n">
-        <v>1294.179012144412</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.0321594822363</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="C26" t="n">
-        <v>467.0321594822363</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="D26" t="n">
-        <v>108.7664608754858</v>
+        <v>538.466175849665</v>
       </c>
       <c r="E26" t="n">
-        <v>108.7664608754858</v>
+        <v>538.466175849665</v>
       </c>
       <c r="F26" t="n">
-        <v>108.7664608754858</v>
+        <v>128.6262041356222</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6251,25 +6251,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1171.560805086887</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>840.4979177433162</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>840.4979177433162</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X26" t="n">
-        <v>467.0321594822363</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.0321594822363</v>
+        <v>896.7318744564154</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>938.0113757202573</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="C27" t="n">
-        <v>763.5583464391303</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
-        <v>614.6239367778791</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E27" t="n">
-        <v>455.3864817724236</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F27" t="n">
-        <v>308.8519237993086</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>170.4395505584788</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>60.14599256594207</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L27" t="n">
         <v>330.1910807414154</v>
@@ -6315,13 +6315,13 @@
         <v>729.6092173456784</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6330,25 +6330,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U27" t="n">
-        <v>1173.163483952</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V27" t="n">
-        <v>938.0113757202573</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W27" t="n">
-        <v>938.0113757202573</v>
+        <v>877.31094329957</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0113757202573</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="Y27" t="n">
-        <v>938.0113757202573</v>
+        <v>815.2070562058072</v>
       </c>
     </row>
     <row r="28">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>924.8022053170791</v>
+        <v>552.534905309803</v>
       </c>
       <c r="C29" t="n">
-        <v>924.8022053170791</v>
+        <v>183.5723883693913</v>
       </c>
       <c r="D29" t="n">
-        <v>924.8022053170791</v>
+        <v>183.5723883693913</v>
       </c>
       <c r="E29" t="n">
-        <v>539.0139527188348</v>
+        <v>183.5723883693913</v>
       </c>
       <c r="F29" t="n">
-        <v>539.0139527188348</v>
+        <v>183.5723883693913</v>
       </c>
       <c r="G29" t="n">
-        <v>129.1739810047921</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>129.1739810047921</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6482,31 +6482,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V29" t="n">
-        <v>1311.402045381201</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W29" t="n">
-        <v>1311.402045381201</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.402045381201</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="Y29" t="n">
-        <v>1311.402045381201</v>
+        <v>939.1347453739247</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313474</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U30" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V30" t="n">
-        <v>876.7615107395675</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W30" t="n">
-        <v>622.5241540113659</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X30" t="n">
-        <v>414.6726538058331</v>
+        <v>329.1174114232699</v>
       </c>
       <c r="Y30" t="n">
-        <v>206.9123550408792</v>
+        <v>121.357112658316</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6643,28 +6643,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>442.2992974737949</v>
+        <v>453.8980776791948</v>
       </c>
       <c r="C32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6707,7 +6707,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6722,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1571.807124783842</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1571.807124783842</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1571.807124783842</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U32" t="n">
-        <v>1571.807124783842</v>
+        <v>1171.560805086887</v>
       </c>
       <c r="V32" t="n">
-        <v>1571.807124783842</v>
+        <v>840.4979177433166</v>
       </c>
       <c r="W32" t="n">
-        <v>1219.038469513728</v>
+        <v>840.4979177433166</v>
       </c>
       <c r="X32" t="n">
-        <v>1219.038469513728</v>
+        <v>840.4979177433166</v>
       </c>
       <c r="Y32" t="n">
-        <v>828.8991375379167</v>
+        <v>840.4979177433166</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.084034870805</v>
+        <v>730.1598755147249</v>
       </c>
       <c r="C33" t="n">
-        <v>428.631005589678</v>
+        <v>555.706846233598</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>406.7724365723467</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>247.5349815668912</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>101.0004235937762</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>101.0004235937762</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>389.6147262310922</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456784</v>
+        <v>789.0328628353552</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V33" t="n">
-        <v>1186.91117086136</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="W33" t="n">
-        <v>1186.91117086136</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="X33" t="n">
-        <v>979.0596706558269</v>
+        <v>730.1598755147249</v>
       </c>
       <c r="Y33" t="n">
-        <v>771.2993718908731</v>
+        <v>730.1598755147249</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H34" t="n">
-        <v>1461.474148589836</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I34" t="n">
-        <v>1312.482271763492</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K34" t="n">
         <v>1302.533129726572</v>
@@ -6874,34 +6874,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>1548.863500350299</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975219</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975219</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975219</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975219</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975219</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975219</v>
+        <v>529.2947736598819</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6941,10 +6941,10 @@
         <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6956,31 +6956,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>503.7583553506526</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W35" t="n">
-        <v>150.9897000805384</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X35" t="n">
-        <v>150.9897000805384</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="Y35" t="n">
-        <v>150.9897000805384</v>
+        <v>939.1347453739247</v>
       </c>
     </row>
     <row r="36">
@@ -7026,16 +7026,16 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
         <v>1541.568727888341</v>
@@ -7044,22 +7044,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1197.420384251888</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1197.420384251888</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V36" t="n">
-        <v>1197.420384251888</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W36" t="n">
-        <v>1197.420384251888</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X36" t="n">
-        <v>1197.420384251888</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y36" t="n">
-        <v>989.6600854869342</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E37" t="n">
-        <v>348.7701515881781</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F37" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7096,7 +7096,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7120,25 +7120,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>534.6628733412681</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D38" t="n">
         <v>32.45932575975219</v>
@@ -7181,43 +7181,43 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="V38" t="n">
-        <v>1535.43291133088</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="W38" t="n">
-        <v>1182.664256060766</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="X38" t="n">
-        <v>809.1984977996857</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.059165823874</v>
+        <v>921.2627134053898</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>468.3521269378421</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C39" t="n">
-        <v>293.8990976567151</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D39" t="n">
-        <v>293.8990976567151</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>293.8990976567151</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>147.3645396836</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7254,49 +7254,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V39" t="n">
-        <v>1306.416619656598</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W39" t="n">
-        <v>1052.179262928397</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X39" t="n">
-        <v>844.327762722864</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y39" t="n">
-        <v>636.5674639579101</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="40">
@@ -7333,40 +7333,40 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687507</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687507</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V40" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
         <v>32.45932575975219</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T41" t="n">
-        <v>1425.397688154633</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="U41" t="n">
-        <v>1171.560805086887</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V41" t="n">
-        <v>1171.560805086887</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W41" t="n">
-        <v>818.792149816773</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X41" t="n">
-        <v>445.3263915556931</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y41" t="n">
-        <v>445.3263915556931</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.5006335659854</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="C42" t="n">
-        <v>360.5006335659854</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>360.5006335659854</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>360.5006335659854</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
         <v>360.5006335659854</v>
@@ -7488,28 +7488,28 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384406</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455073</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O42" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
         <v>1541.568727888341</v>
@@ -7518,22 +7518,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1145.863825383985</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V42" t="n">
-        <v>1145.863825383985</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="W42" t="n">
-        <v>891.6264686557836</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="X42" t="n">
-        <v>736.4762693510072</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="Y42" t="n">
-        <v>528.7159705860533</v>
+        <v>944.9608164894786</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="C43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="D43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975219</v>
@@ -7570,49 +7570,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U43" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="W43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="X43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.1392625228377</v>
+        <v>106.5621133970634</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.7188982848979</v>
+        <v>493.458460677562</v>
       </c>
       <c r="C44" t="n">
-        <v>156.7188982848979</v>
+        <v>493.458460677562</v>
       </c>
       <c r="D44" t="n">
-        <v>156.7188982848979</v>
+        <v>493.458460677562</v>
       </c>
       <c r="E44" t="n">
-        <v>156.7188982848979</v>
+        <v>493.458460677562</v>
       </c>
       <c r="F44" t="n">
-        <v>156.7188982848979</v>
+        <v>493.458460677562</v>
       </c>
       <c r="G44" t="n">
-        <v>156.7188982848979</v>
+        <v>83.6184889635191</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>83.6184889635191</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521499</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q44" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T44" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U44" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V44" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W44" t="n">
-        <v>933.4580703248314</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X44" t="n">
-        <v>933.4580703248314</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y44" t="n">
-        <v>543.3187383490197</v>
+        <v>880.0583007416838</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975219</v>
@@ -7731,22 +7731,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>256.6067387278471</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321101</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O45" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R45" t="n">
         <v>1541.568727888341</v>
@@ -7755,22 +7755,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1237.13885918186</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1008.936191719338</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V45" t="n">
-        <v>1008.936191719338</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W45" t="n">
-        <v>754.6988349911367</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X45" t="n">
-        <v>546.8473347856038</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.08703602065</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="C46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975219</v>
@@ -7807,49 +7807,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K46" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L46" t="n">
-        <v>107.0302722280248</v>
+        <v>107.0302722280249</v>
       </c>
       <c r="M46" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984441</v>
       </c>
       <c r="N46" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O46" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710738</v>
       </c>
       <c r="P46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="V46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="W46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="X46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.5759651720879</v>
+        <v>179.3492732576626</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>267.4734388209745</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8781,7 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,10 +9009,10 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878808</v>
       </c>
       <c r="M15" t="n">
-        <v>251.9990040344214</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304797</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>281.038292321383</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>70.10119885733471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304798</v>
+        <v>203.2271928126418</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5777639440801</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>203.2271928126414</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>380.7598033349562</v>
+        <v>270.4206501018624</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>281.0382923213828</v>
+        <v>74.46639351210658</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>224.2923308271897</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444136</v>
+        <v>73.77211287831321</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304798</v>
+        <v>351.7205150479947</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321616</v>
       </c>
       <c r="N39" t="n">
-        <v>380.7598033349562</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344211</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>209.1955478481121</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344736</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026371</v>
       </c>
       <c r="L45" t="n">
-        <v>296.5127271079357</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>265.3887710859027</v>
       </c>
       <c r="C11" t="n">
-        <v>317.524828947216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23346,16 +23346,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,22 +23388,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>159.290980178104</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>44.25227630748151</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23467,10 +23467,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1791567213856</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>24.83491015727384</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,19 +23495,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.7675548521784</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>332.1813834494052</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -23552,13 +23552,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>55.71471156159438</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>93.27082729278686</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>66.13418525058397</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>115.2596847868244</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>289.5309751641331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>80.03909312003481</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>159.107959118565</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23829,7 +23829,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>71.11679827583575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,22 +23932,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>184.756962260743</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>92.04730137591957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,10 +23978,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>14.82496384139171</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>8.73669356306192</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>147.7185250680651</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>39.11035280625074</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>187.621475062241</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8398609411363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24257,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>172.7684175992485</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>280.6312060422305</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.1011422209983</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>78.52437462028939</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24415,13 +24415,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>187.6214750622408</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283733</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
-        <v>339.1694403659577</v>
+        <v>319.5082945384227</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24491,19 +24491,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>51.13222266901005</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>144.2901369806524</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24622,7 +24622,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>265.1115721469912</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>92.01196081798039</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
@@ -24737,10 +24737,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>78.52437462028918</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,7 +24807,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24880,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R31" t="n">
-        <v>59.32005692394495</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>135.8079968813293</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>62.20811477396803</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>57.94939538179703</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25011,7 +25011,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>41.33493555692763</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,13 +25090,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>56.55224943852478</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25129,10 +25129,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967577</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.3887710859022</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>29.33269180516214</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>24.01433129688894</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.5475149467563</v>
       </c>
     </row>
     <row r="37">
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>134.0822771319449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>39.33204381001867</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25333,7 +25333,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>222.7744212859898</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25448,13 +25448,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0942155799726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25473,22 +25473,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>23.27208772381209</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25527,10 +25527,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>202.7107073159002</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25591,25 +25591,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>66.72592374140274</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>213.161238575653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25643,10 +25643,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>112.4613900883091</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>78.8768543395318</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>44.25227630748111</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>52.17428789174886</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>47.75082525111449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>94.36490978627234</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25837,13 +25837,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H44" t="n">
-        <v>210.4233389158264</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>137.1118979388407</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>159.107959118565</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25995,13 +25995,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>63.3356214775612</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434429</v>
+        <v>64.02970078434427</v>
       </c>
       <c r="R46" t="n">
         <v>165.4090611368575</v>
@@ -26080,7 +26080,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>75.25371325727443</v>
+        <v>72.0592882619932</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499885.2134207062</v>
+        <v>499885.213420706</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>499885.2134207062</v>
+        <v>499885.213420706</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>499885.213420706</v>
+        <v>499885.2134207061</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499885.213420706</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499885.213420706</v>
+        <v>499885.2134207061</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499885.2134207062</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499885.2134207063</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499885.2134207063</v>
+        <v>499885.2134207062</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499885.2134207058</v>
+        <v>499885.2134207061</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499885.2134207062</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499885.2134207061</v>
+        <v>499885.213420706</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="F2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904491</v>
       </c>
       <c r="G2" t="n">
+        <v>299080.4558904493</v>
+      </c>
+      <c r="H2" t="n">
+        <v>299080.4558904496</v>
+      </c>
+      <c r="I2" t="n">
+        <v>299080.4558904493</v>
+      </c>
+      <c r="J2" t="n">
+        <v>299080.4558904493</v>
+      </c>
+      <c r="K2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="L2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="H2" t="n">
-        <v>299080.4558904491</v>
-      </c>
-      <c r="I2" t="n">
-        <v>299080.4558904494</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>299080.4558904492</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>299080.4558904492</v>
-      </c>
-      <c r="L2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="M2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>299080.4558904495</v>
       </c>
       <c r="O2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904494</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="F4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="G4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="H4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="I4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="J4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="K4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="L4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="M4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="N4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="O4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="P4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26491,25 +26491,25 @@
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="P5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114542.7673639871</v>
+        <v>116348.0070476946</v>
       </c>
       <c r="C6" t="n">
-        <v>195312.198895535</v>
+        <v>197117.4385792429</v>
       </c>
       <c r="D6" t="n">
-        <v>195312.1988955349</v>
+        <v>197117.4385792426</v>
       </c>
       <c r="E6" t="n">
-        <v>50862.12429292622</v>
+        <v>52705.4445633642</v>
       </c>
       <c r="F6" t="n">
-        <v>217802.2944181733</v>
+        <v>219645.6146886108</v>
       </c>
       <c r="G6" t="n">
-        <v>217802.294418173</v>
+        <v>219645.614688611</v>
       </c>
       <c r="H6" t="n">
-        <v>217802.2944181729</v>
+        <v>219645.6146886113</v>
       </c>
       <c r="I6" t="n">
-        <v>217802.2944181732</v>
+        <v>219645.614688611</v>
       </c>
       <c r="J6" t="n">
-        <v>154742.3518190667</v>
+        <v>156585.6720895048</v>
       </c>
       <c r="K6" t="n">
-        <v>217802.294418173</v>
+        <v>219645.6146886111</v>
       </c>
       <c r="L6" t="n">
-        <v>217802.2944181731</v>
+        <v>219645.6146886109</v>
       </c>
       <c r="M6" t="n">
-        <v>176751.5965557252</v>
+        <v>178594.916826163</v>
       </c>
       <c r="N6" t="n">
-        <v>217802.2944181733</v>
+        <v>219645.6146886109</v>
       </c>
       <c r="O6" t="n">
-        <v>217802.2944181731</v>
+        <v>219645.614688611</v>
       </c>
       <c r="P6" t="n">
-        <v>217802.2944181731</v>
+        <v>219645.6146886111</v>
       </c>
     </row>
   </sheetData>
@@ -26756,19 +26756,19 @@
         <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="J3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="K3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="L3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="M3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="N3" t="n">
         <v>146.5718044195371</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="F4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="F4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969024</v>
@@ -26808,28 +26808,28 @@
         <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="L4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="L4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>405.7415719969024</v>
       </c>
-      <c r="N4" t="n">
-        <v>405.7415719969023</v>
-      </c>
       <c r="O4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2113605660119</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>196.1244348211637</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7511935351735</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>168.2902436427004</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>219.8840968279493</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>20.79046700416652</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32722,16 +32722,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32740,7 +32740,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,40 +32859,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J26" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L26" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438474</v>
@@ -32959,16 +32959,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R26" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S26" t="n">
         <v>13.4271557515988</v>
@@ -32977,7 +32977,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J27" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O27" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R27" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,40 +33096,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O28" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R28" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S28" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J29" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L29" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438474</v>
@@ -33196,16 +33196,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R29" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S29" t="n">
         <v>13.4271557515988</v>
@@ -33214,7 +33214,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O30" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,40 +33333,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O31" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R31" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S31" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J32" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L32" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438474</v>
@@ -33433,16 +33433,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R32" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S32" t="n">
         <v>13.4271557515988</v>
@@ -33451,7 +33451,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J33" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O33" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,40 +33570,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O34" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R34" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S34" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J35" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438474</v>
@@ -33670,16 +33670,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R35" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S35" t="n">
         <v>13.4271557515988</v>
@@ -33688,7 +33688,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O36" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,40 +33807,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O37" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R37" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I38" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N38" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T38" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R39" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T39" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U39" t="n">
         <v>0.02074129307823639</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J40" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O40" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T40" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U40" t="n">
         <v>0.01441689879536432</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I41" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N41" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S41" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T41" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R42" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T42" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U42" t="n">
         <v>0.02074129307823639</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J43" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K43" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O43" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T43" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U43" t="n">
         <v>0.01441689879536432</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011538</v>
       </c>
       <c r="H44" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046569</v>
       </c>
       <c r="I44" t="n">
         <v>22.716420059836</v>
       </c>
       <c r="J44" t="n">
-        <v>50.01044697629221</v>
+        <v>50.01044697629223</v>
       </c>
       <c r="K44" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645909</v>
       </c>
       <c r="L44" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044667</v>
       </c>
       <c r="M44" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N44" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O44" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971774</v>
       </c>
       <c r="P44" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737674</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.63057666134787</v>
+        <v>63.6305766613479</v>
       </c>
       <c r="R44" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545226</v>
       </c>
       <c r="S44" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159881</v>
       </c>
       <c r="T44" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.0471386707680923</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891931</v>
       </c>
       <c r="H45" t="n">
-        <v>3.044821823885101</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I45" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J45" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321934</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409527</v>
       </c>
       <c r="L45" t="n">
-        <v>68.45318092253947</v>
+        <v>68.4531809225395</v>
       </c>
       <c r="M45" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864773</v>
       </c>
       <c r="N45" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975597</v>
       </c>
       <c r="O45" t="n">
-        <v>75.01019504100591</v>
+        <v>75.01019504100594</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601706</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.24363958326611</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R45" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436763</v>
       </c>
       <c r="S45" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422069</v>
       </c>
       <c r="T45" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259949</v>
       </c>
       <c r="U45" t="n">
         <v>0.02074129307823639</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H46" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644384</v>
       </c>
       <c r="I46" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177523</v>
       </c>
       <c r="J46" t="n">
         <v>18.68670365525803</v>
       </c>
       <c r="K46" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L46" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323132</v>
       </c>
       <c r="M46" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141112</v>
       </c>
       <c r="N46" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039459</v>
       </c>
       <c r="O46" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172072</v>
       </c>
       <c r="P46" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225444</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735011</v>
       </c>
       <c r="R46" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S46" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118895</v>
       </c>
       <c r="T46" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U46" t="n">
         <v>0.01441689879536432</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,13 +34784,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,19 +35489,19 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>197.3722399636398</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054603</v>
       </c>
       <c r="M15" t="n">
-        <v>189.7466035210508</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35884,7 +35884,7 @@
         <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726434</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>218.7858918080124</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969024</v>
@@ -35978,10 +35978,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>153.8813432790645</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36218,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.83962944132466</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36376,7 +36376,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,13 +36446,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>153.881343279064</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.3237492791392</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36528,10 +36528,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726433</v>
@@ -36613,7 +36613,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>331.4139538013789</v>
+        <v>221.074800568285</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L28" t="n">
         <v>66.88568574354744</v>
@@ -36765,10 +36765,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O28" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P28" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726433</v>
@@ -36850,7 +36850,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>218.7858918080121</v>
+        <v>12.21399299873596</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L31" t="n">
         <v>66.88568574354744</v>
@@ -37002,10 +37002,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O31" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P31" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726433</v>
@@ -37087,7 +37087,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>154.191131969855</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L34" t="n">
         <v>66.88568574354744</v>
@@ -37239,10 +37239,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O34" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P34" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726433</v>
@@ -37324,7 +37324,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>141.3237492791392</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L37" t="n">
         <v>66.88568574354744</v>
@@ -37476,10 +37476,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O37" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P37" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O38" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P38" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366293</v>
+        <v>151.592434518791</v>
       </c>
       <c r="N39" t="n">
-        <v>331.4139538013789</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167971</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N41" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P41" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680288</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210506</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O42" t="n">
-        <v>141.6094984446736</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L43" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M43" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N43" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.0611576216796</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209099</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680309</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>226.411528250601</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243112</v>
       </c>
       <c r="L46" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354746</v>
       </c>
       <c r="M46" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325171</v>
       </c>
       <c r="N46" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962319</v>
       </c>
       <c r="O46" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P46" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714793</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1544588.918581289</v>
+        <v>1488811.396438685</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111182</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6970500.35835791</v>
+        <v>6970500.358357908</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,22 +706,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.68277124601745</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>112.960429762846</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>128.2298974603009</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214.9010874418347</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>94.97932225921713</v>
+        <v>51.12024601807693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>72.13628181900687</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>140.979167903347</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>48.98427584501901</v>
+        <v>44.00988501366331</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.4697023004217</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>173.1945231188783</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.62611983656772</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>8.256174432632129</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>68.931391958544</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.64439241526554</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>125.6077030299135</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.178514901655</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.8939856670482</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -1943,7 +1943,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8932128441654</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>139.3434223728893</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>160.6718981164722</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>100.5158344176019</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>144.1830144675639</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.78974769572891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>14.66929392497709</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>105.4291797140166</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>85.67417889435382</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.74539087081421</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>176.8839300665536</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.6396260835077</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>199.6485564282929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.42522453130207</v>
+        <v>2.585499925539775</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
+        <v>123.7983087353871</v>
+      </c>
+      <c r="G29" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G29" t="n">
-        <v>396.362021145317</v>
-      </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>28.28562170591829</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>101.1802937225922</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>12.35168551462441</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14.64669443332087</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>111.768170481875</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>31.45651885856831</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>206.8813693783442</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>6.666355695961739</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>104.6883829405989</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -3325,13 +3325,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>138.8736529420856</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>261.4907456733154</v>
+        <v>254.4523042263063</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88.00880902957793</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>106.390956156355</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V40" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>86.65804289016241</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.58185175449139</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>117.5522897421672</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>46.94271415388182</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>17.00671206275838</v>
       </c>
       <c r="J43" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.149709277251265</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.615331340543814</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>61.1574216183229</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.94271415388182</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.19479062707047</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.395163045047</v>
+        <v>446.5882660539306</v>
       </c>
       <c r="C3" t="n">
-        <v>253.395163045047</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>461.2466632505798</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>461.2466632505798</v>
+        <v>614.8036030739986</v>
       </c>
       <c r="X3" t="n">
-        <v>253.395163045047</v>
+        <v>614.8036030739986</v>
       </c>
       <c r="Y3" t="n">
-        <v>253.395163045047</v>
+        <v>614.8036030739986</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4533,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>298.4948343740486</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V8" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>495.259035872464</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.810259228364</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>492.5145069673265</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="V9" t="n">
-        <v>492.5145069673265</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W9" t="n">
-        <v>249.0657303232264</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>249.0657303232264</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>558.9237552812577</v>
+        <v>515.1642286041049</v>
       </c>
       <c r="C11" t="n">
-        <v>558.9237552812577</v>
+        <v>515.1642286041049</v>
       </c>
       <c r="D11" t="n">
-        <v>558.9237552812577</v>
+        <v>515.1642286041049</v>
       </c>
       <c r="E11" t="n">
-        <v>558.9237552812577</v>
+        <v>515.1642286041049</v>
       </c>
       <c r="F11" t="n">
-        <v>558.9237552812577</v>
+        <v>515.1642286041049</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>105.3242568900621</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1032.389842527199</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>701.3269551836285</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W11" t="n">
-        <v>558.9237552812577</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X11" t="n">
-        <v>558.9237552812577</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="Y11" t="n">
-        <v>558.9237552812577</v>
+        <v>901.7640686682266</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W12" t="n">
-        <v>1573.487221477489</v>
+        <v>665.3542789510047</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>457.502778745472</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>457.502778745472</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W13" t="n">
         <v>32.45932575975218</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>401.4218427001639</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975219</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5305,25 +5305,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.626773001177</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W14" t="n">
-        <v>1551.626773001177</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X14" t="n">
-        <v>1178.161014740097</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y14" t="n">
-        <v>788.0216827642857</v>
+        <v>565.6689871128444</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313475</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1365.726922712535</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>1365.726922712535</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V15" t="n">
-        <v>1365.726922712535</v>
+        <v>1184.933375406274</v>
       </c>
       <c r="W15" t="n">
-        <v>1365.726922712535</v>
+        <v>930.6960186780727</v>
       </c>
       <c r="X15" t="n">
-        <v>1157.875422507002</v>
+        <v>722.8445184725399</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>515.0842197075859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>213.333508020557</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>66.44356052264666</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>66.44356052264666</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>528.2983104071473</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>159.3357934667355</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5518,13 +5518,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5536,31 +5536,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1382.527700869072</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1159.783781249839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>905.9468981820935</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>574.8840108385228</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W17" t="n">
-        <v>222.1153555684087</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>918.437642382959</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>528.2983104071473</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>589.3371216598255</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>589.3371216598255</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>440.4027119985742</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
@@ -5606,40 +5606,40 @@
         <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.16425765038</v>
       </c>
       <c r="U18" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.16425765038</v>
       </c>
       <c r="V18" t="n">
-        <v>1306.416619656599</v>
+        <v>1173.16425765038</v>
       </c>
       <c r="W18" t="n">
-        <v>1052.179262928397</v>
+        <v>1173.16425765038</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.179262928397</v>
+        <v>965.3127574448474</v>
       </c>
       <c r="Y18" t="n">
-        <v>1052.179262928397</v>
+        <v>757.5524586798936</v>
       </c>
     </row>
     <row r="19">
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1286.226725594946</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C20" t="n">
-        <v>917.2642086545341</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D20" t="n">
-        <v>558.9985100477836</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E20" t="n">
-        <v>173.2102574495394</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G20" t="n">
         <v>32.45932575975219</v>
@@ -5752,52 +5752,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521511</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W20" t="n">
-        <v>1286.226725594946</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X20" t="n">
-        <v>1286.226725594946</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="Y20" t="n">
-        <v>1286.226725594946</v>
+        <v>1237.927521786082</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>534.9536628471124</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="C21" t="n">
-        <v>360.5006335659854</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="D21" t="n">
-        <v>360.5006335659854</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E21" t="n">
-        <v>360.5006335659854</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384406</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1353.93290706941</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U21" t="n">
-        <v>1353.93290706941</v>
+        <v>1309.82464439268</v>
       </c>
       <c r="V21" t="n">
-        <v>1118.780798837667</v>
+        <v>1074.672536160938</v>
       </c>
       <c r="W21" t="n">
-        <v>1118.780798837667</v>
+        <v>820.435179432736</v>
       </c>
       <c r="X21" t="n">
-        <v>910.9292986321343</v>
+        <v>820.435179432736</v>
       </c>
       <c r="Y21" t="n">
-        <v>703.1689998671804</v>
+        <v>612.6748806677822</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F22" t="n">
         <v>32.45932575975219</v>
@@ -5913,49 +5913,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191287</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280249</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.2357570984441</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>270.968751228571</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710738</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029502</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029502</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029502</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029502</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029502</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029502</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029502</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049329</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049329</v>
+        <v>179.3492732576626</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>759.6875413069145</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7250243665027</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>548.793418397044</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>138.9534466830012</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.966287987609</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.426713346848</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="Y23" t="n">
-        <v>1146.287381371036</v>
+        <v>958.6333901110868</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609043</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1593.930539633252</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1593.930539633252</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1393.027530738745</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1393.027530738745</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V24" t="n">
-        <v>1157.875422507002</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W24" t="n">
-        <v>1157.875422507002</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X24" t="n">
-        <v>1157.875422507002</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.875422507002</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.1392625228377</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="C25" t="n">
-        <v>132.1392625228377</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6177,22 +6177,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>132.1392625228377</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="X25" t="n">
-        <v>132.1392625228377</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.1392625228377</v>
+        <v>182.5759651720879</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6259,19 +6259,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1369.129404919863</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W26" t="n">
-        <v>1369.129404919863</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X26" t="n">
-        <v>1167.464196406436</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y26" t="n">
-        <v>777.3248644306245</v>
+        <v>175.5296551370327</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.95955255904721</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C27" t="n">
-        <v>39.95955255904721</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D27" t="n">
-        <v>39.95955255904721</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E27" t="n">
-        <v>39.95955255904721</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577356</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W27" t="n">
-        <v>455.571351529534</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X27" t="n">
-        <v>247.7198513240011</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.95955255904721</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6405,31 +6405,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="C29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="D29" t="n">
-        <v>1369.129404919863</v>
+        <v>953.1363467744504</v>
       </c>
       <c r="E29" t="n">
-        <v>1369.129404919863</v>
+        <v>567.3480941762061</v>
       </c>
       <c r="F29" t="n">
-        <v>959.2894332058204</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y29" t="n">
-        <v>1369.129404919863</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>594.4195962804527</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C30" t="n">
-        <v>419.9665669993257</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D30" t="n">
-        <v>271.0321573380744</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1594.394952931126</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1426.892717889292</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1225.989708994785</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="U30" t="n">
-        <v>997.7870415322634</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V30" t="n">
-        <v>762.6349333005207</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W30" t="n">
-        <v>762.6349333005207</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X30" t="n">
-        <v>762.6349333005207</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y30" t="n">
-        <v>762.6349333005207</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="D31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="E31" t="n">
-        <v>1610.489837972837</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="F31" t="n">
-        <v>1463.599890474927</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.356467660636</v>
+        <v>791.3079178064852</v>
       </c>
       <c r="C32" t="n">
-        <v>145.356467660636</v>
+        <v>791.3079178064852</v>
       </c>
       <c r="D32" t="n">
-        <v>145.356467660636</v>
+        <v>433.0422191997347</v>
       </c>
       <c r="E32" t="n">
-        <v>145.356467660636</v>
+        <v>47.25396660149045</v>
       </c>
       <c r="F32" t="n">
-        <v>145.356467660636</v>
+        <v>47.25396660149045</v>
       </c>
       <c r="G32" t="n">
-        <v>145.356467660636</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>145.356467660636</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011317</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U32" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V32" t="n">
-        <v>871.5908811918301</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W32" t="n">
-        <v>518.8222259217159</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X32" t="n">
-        <v>145.356467660636</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.356467660636</v>
+        <v>1177.907757870607</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>736.4874157462907</v>
+        <v>843.1255275138191</v>
       </c>
       <c r="C33" t="n">
-        <v>562.0343864651637</v>
+        <v>668.6724982326921</v>
       </c>
       <c r="D33" t="n">
-        <v>413.0999768039125</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="E33" t="n">
-        <v>253.862521798457</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F33" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G33" t="n">
         <v>222.0882603251556</v>
@@ -6779,52 +6779,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>256.6067387278475</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313475</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.665718993834</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U33" t="n">
-        <v>1112.463051531313</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V33" t="n">
-        <v>1112.463051531313</v>
+        <v>1220.311944714033</v>
       </c>
       <c r="W33" t="n">
-        <v>1112.463051531313</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="X33" t="n">
-        <v>1112.463051531313</v>
+        <v>1011.340864533887</v>
       </c>
       <c r="Y33" t="n">
-        <v>904.7027527663588</v>
+        <v>1011.340864533887</v>
       </c>
     </row>
     <row r="34">
@@ -6897,13 +6897,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.1153555684087</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C35" t="n">
-        <v>222.1153555684087</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>449.0329900959785</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>449.0329900959785</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>39.19301838193576</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>39.19301838193576</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1403.224803860037</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T35" t="n">
-        <v>1180.480884240805</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U35" t="n">
-        <v>926.6440011730592</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V35" t="n">
-        <v>595.5811138294886</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W35" t="n">
-        <v>595.5811138294886</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X35" t="n">
-        <v>222.1153555684087</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.1153555684087</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>830.4226304814787</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>655.9696012003517</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.697260562599</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N36" t="n">
-        <v>1299.952780813052</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.96628798761</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1138.914384614764</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>1138.914384614764</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>1138.914384614764</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.6379675015467</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1463.115195072319</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="C37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="D37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.96628798761</v>
+        <v>256.8779464865154</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="C38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="D38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="E38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="F38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="G38" t="n">
-        <v>486.247421905091</v>
+        <v>289.4818552812737</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7183,13 +7183,13 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7207,19 +7207,19 @@
         <v>1286.226725594945</v>
       </c>
       <c r="U38" t="n">
-        <v>1286.226725594945</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V38" t="n">
-        <v>1286.226725594945</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W38" t="n">
-        <v>1286.226725594945</v>
+        <v>679.6211872570855</v>
       </c>
       <c r="X38" t="n">
-        <v>1286.226725594945</v>
+        <v>679.6211872570855</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.0873936191338</v>
+        <v>289.4818552812737</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="C39" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975219</v>
+        <v>139.9249380388987</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>139.9249380388987</v>
       </c>
       <c r="F39" t="n">
         <v>32.45932575975219</v>
@@ -7253,19 +7253,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570041</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288025</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X39" t="n">
-        <v>329.1174114232697</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y39" t="n">
-        <v>121.3571126583158</v>
+        <v>288.85934770015</v>
       </c>
     </row>
     <row r="40">
@@ -7335,7 +7335,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7365,10 +7365,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285366</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W40" t="n">
         <v>32.45932575975219</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="C41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="D41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="E41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="F41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="G41" t="n">
-        <v>119.9927024164819</v>
+        <v>401.1685858306734</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>64.3601861178243</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7414,49 +7414,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011316</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="X41" t="n">
-        <v>896.7318744564154</v>
+        <v>1177.907757870607</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.5925424806037</v>
+        <v>787.7684258947952</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>910.3247089140674</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="C42" t="n">
-        <v>735.8716796329404</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="D42" t="n">
-        <v>586.9372699716891</v>
+        <v>340.8279469334054</v>
       </c>
       <c r="E42" t="n">
-        <v>427.6998149662337</v>
+        <v>340.8279469334054</v>
       </c>
       <c r="F42" t="n">
-        <v>281.1652569931187</v>
+        <v>340.8279469334054</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668621</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N42" t="n">
         <v>1057.709031609043</v>
@@ -7514,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1494.151844904622</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1494.151844904622</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1494.151844904622</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V42" t="n">
-        <v>1494.151844904622</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W42" t="n">
-        <v>1494.151844904622</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X42" t="n">
-        <v>1286.300344699089</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y42" t="n">
-        <v>1078.540045934135</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E43" t="n">
-        <v>1622.966287987609</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="F43" t="n">
-        <v>1622.966287987609</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="G43" t="n">
-        <v>1622.966287987609</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="H43" t="n">
-        <v>1461.474148589836</v>
+        <v>49.63782279284146</v>
       </c>
       <c r="I43" t="n">
-        <v>1312.482271763492</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>859.3611977507178</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C44" t="n">
-        <v>859.3611977507178</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D44" t="n">
-        <v>859.3611977507178</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7651,13 +7651,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1618.304337138575</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1618.304337138575</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="X44" t="n">
-        <v>1249.50052972653</v>
+        <v>1022.094659258263</v>
       </c>
       <c r="Y44" t="n">
-        <v>859.3611977507178</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>910.3247089140674</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="C45" t="n">
-        <v>735.8716796329404</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9372699716891</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E45" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975219</v>
@@ -7727,25 +7727,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7757,22 +7757,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.568727888341</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W45" t="n">
-        <v>1494.151844904622</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X45" t="n">
-        <v>1286.300344699089</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y45" t="n">
-        <v>1078.540045934135</v>
+        <v>415.2220863658356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7836,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>321.6559039998486</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9011,7 +9011,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>380.7598033349567</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>184.8055467452001</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>63.8487512925867</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>174.18790452568</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126415</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>157.1342855878806</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>418.8785602873041</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275541</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479947</v>
+        <v>203.2271928126416</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>174.1879045256798</v>
+        <v>203.2271928126414</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>251.9990040344212</v>
+        <v>213.8448350321615</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>261.3040338967137</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>208.261800814066</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>202.7107073159006</v>
+        <v>207.6850981472563</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23472,13 +23472,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>24.83491015727384</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>213.161238575653</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,7 +23512,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>160.2457925968423</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23545,7 +23545,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>124.9667939980788</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23554,16 +23554,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>190.6378043729295</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>163.8691951908813</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>126.2328255885297</v>
       </c>
       <c r="I16" t="n">
         <v>147.5019580580808</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23752,7 +23752,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.15176648065641</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>70.41439893299153</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.6391979828191</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0.0007659613962971434</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.91723044926614</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23946,19 +23946,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>267.5326233688221</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>209.0592025619969</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>98.37814438795972</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>81.73762632033265</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.04223248620839</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434427</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>204.7411049468763</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>228.011136001704</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>284.0569217841152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>51.8381936274613</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>69.04353215175573</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24387,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24417,7 +24417,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>109.6390682700374</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0942155799729</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24499,16 +24499,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>170.0825442501762</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>137.6439878620818</v>
+        <v>142.4837124678441</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24542,7 +24542,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>283.0777370063244</v>
       </c>
       <c r="G29" t="n">
-        <v>18.35148298521693</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.29796279235723</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>97.71368508296946</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>134.0822771319448</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>128.5318789201399</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24894,7 +24894,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>400.066809697213</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>75.99129902869491</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25007,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>113.6126935348156</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>44.81361378257537</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.91723044926616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>181.0931138146082</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>90.90453089404761</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.80904283521875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.5793981957992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,10 +25332,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>116.085430306583</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>71.94957004240518</v>
+        <v>78.98801148941428</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.52437462028941</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>38.67825623702885</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
@@ -25520,7 +25520,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25605,13 +25605,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V40" t="n">
-        <v>212.9428526967575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25645,10 +25645,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>246.7822728255582</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>156.1776177560785</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -25687,13 +25687,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>19.47595976625422</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>118.8844985375339</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,10 +25806,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>130.4952459953224</v>
       </c>
       <c r="J43" t="n">
-        <v>56.55224943852477</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>374.7806607950105</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>108.2403550051536</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>105.3757620315444</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25997,22 +25997,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>204.7522690070378</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26076,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>187.6214750622408</v>
+        <v>69.04353215175573</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499885.213420706</v>
+        <v>499885.2134207058</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>499885.2134207061</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499885.2134207059</v>
+        <v>499885.2134207062</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499885.2134207061</v>
+        <v>499885.213420706</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>499885.2134207061</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499885.2134207061</v>
+        <v>499885.213420706</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499885.2134207063</v>
+        <v>499885.2134207059</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499885.2134207064</v>
+        <v>499885.2134207061</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>499885.2134207059</v>
+        <v>499885.2134207058</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499885.2134207064</v>
+        <v>499885.2134207062</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="F2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="G2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>299080.4558904491</v>
+      </c>
+      <c r="J2" t="n">
+        <v>299080.4558904495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="L2" t="n">
         <v>299080.4558904493</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
         <v>299080.4558904491</v>
-      </c>
-      <c r="H2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="I2" t="n">
-        <v>299080.4558904494</v>
-      </c>
-      <c r="J2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>299080.4558904492</v>
-      </c>
-      <c r="L2" t="n">
-        <v>299080.4558904491</v>
-      </c>
-      <c r="M2" t="n">
-        <v>299080.4558904492</v>
       </c>
       <c r="N2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="O2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="P2" t="n">
         <v>299080.4558904493</v>
-      </c>
-      <c r="P2" t="n">
-        <v>299080.4558904492</v>
       </c>
     </row>
     <row r="3">
@@ -26459,7 +26459,7 @@
         <v>51570.48828808073</v>
       </c>
       <c r="P4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
@@ -26502,7 +26502,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116348.0070476949</v>
+        <v>116348.0070476948</v>
       </c>
       <c r="C6" t="n">
-        <v>197117.4385792426</v>
+        <v>197117.4385792429</v>
       </c>
       <c r="D6" t="n">
-        <v>197117.4385792425</v>
+        <v>197117.4385792427</v>
       </c>
       <c r="E6" t="n">
-        <v>52705.44456336417</v>
+        <v>42860.84516998735</v>
       </c>
       <c r="F6" t="n">
-        <v>219645.614688611</v>
+        <v>209801.0152952344</v>
       </c>
       <c r="G6" t="n">
-        <v>219645.6146886108</v>
+        <v>209801.0152952344</v>
       </c>
       <c r="H6" t="n">
-        <v>219645.6146886109</v>
+        <v>209801.0152952341</v>
       </c>
       <c r="I6" t="n">
-        <v>219645.6146886111</v>
+        <v>209801.0152952341</v>
       </c>
       <c r="J6" t="n">
-        <v>156585.6720895048</v>
+        <v>146741.0726961282</v>
       </c>
       <c r="K6" t="n">
-        <v>219645.6146886109</v>
+        <v>209801.0152952344</v>
       </c>
       <c r="L6" t="n">
-        <v>219645.6146886108</v>
+        <v>209801.0152952343</v>
       </c>
       <c r="M6" t="n">
-        <v>178594.916826163</v>
+        <v>168750.3174327862</v>
       </c>
       <c r="N6" t="n">
-        <v>219645.6146886109</v>
+        <v>209801.0152952342</v>
       </c>
       <c r="O6" t="n">
-        <v>219645.6146886111</v>
+        <v>209801.0152952344</v>
       </c>
       <c r="P6" t="n">
-        <v>219645.6146886109</v>
+        <v>209801.0152952342</v>
       </c>
     </row>
   </sheetData>
@@ -26755,10 +26755,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26773,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26804,10 +26804,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
@@ -26819,10 +26819,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>337.3772419221205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.7622943186213</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>138.7345533980736</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>210.8693737747013</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>77.45279831700344</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>162.4565364694636</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>207.8341597252609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>191.9749582998768</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,16 +27897,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27988,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>130.9620598217577</v>
+        <v>174.8211360628979</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,16 +28052,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011538</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046569</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629223</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645909</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044667</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
-        <v>105.1383858978455</v>
+        <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971774</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737674</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.6305766613479</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545226</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.42715575159881</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091552</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0471386707680923</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891931</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885102</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321934</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409527</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.4531809225395</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864773</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975597</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100594</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601706</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326612</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436763</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422069</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259949</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483456</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644384</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177523</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412596</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323132</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141112</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039459</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172072</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225444</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735011</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118895</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970204</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M25" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33909,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33927,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9091475161414</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M12" t="n">
         <v>403.4526632366293</v>
@@ -35503,7 +35503,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
@@ -35743,10 +35743,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>331.4139538013793</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167971</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
-        <v>274.8802469209099</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M20" t="n">
-        <v>322.6315268094072</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
         <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
-        <v>249.9811662707764</v>
+        <v>249.9811662707763</v>
       </c>
       <c r="P20" t="n">
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680309</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696148</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461245</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>122.5531462318295</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969024</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243112</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354746</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325171</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962319</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576039</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714793</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>124.8420549921026</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
@@ -36922,7 +36922,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790641</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>87.03308673054592</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37168,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>369.5327107537267</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144174</v>
+        <v>153.8813432790642</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37715,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37800,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223149</v>
@@ -37870,7 +37870,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>124.8420549921024</v>
+        <v>153.881343279064</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -38019,7 +38019,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
         <v>274.8802469209098</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>189.7466035210506</v>
+        <v>151.5924345187909</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38116,7 +38116,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
